--- a/results/RateConstraints.xlsx
+++ b/results/RateConstraints.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
   <si>
     <t>ATxMB</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Constrained</t>
+  </si>
+  <si>
+    <t>TBasal</t>
   </si>
 </sst>
 </file>
@@ -119,11 +122,20 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -133,11 +145,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -471,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -500,22 +513,22 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>-679.91162099999997</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>-676.87667699999997</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>-671.75059099999999</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <f>AVERAGE(C2:E2)</f>
         <v>-676.17962966666664</v>
       </c>
@@ -537,7 +550,7 @@
         <v>-660.66224699999998</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F13" si="0">AVERAGE(C3:E3)</f>
+        <f t="shared" ref="F3:F17" si="0">AVERAGE(C3:E3)</f>
         <v>-663.57730366666669</v>
       </c>
     </row>
@@ -584,22 +597,22 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>-659.53185099999996</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>-660.90757399999995</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>-661.37154499999997</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <f t="shared" si="0"/>
         <v>-660.60365666666667</v>
       </c>
@@ -668,22 +681,22 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>-638.63682800000004</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>-638.36295399999995</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>-639.758555</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <f t="shared" si="0"/>
         <v>-638.91944566666655</v>
       </c>
@@ -751,9 +764,86 @@
         <v>-634.05392700000004</v>
       </c>
     </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3">
+        <v>-677.35709599999996</v>
+      </c>
+      <c r="D14" s="3">
+        <v>-665.45626500000003</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-667.23083199999996</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="0"/>
+        <v>-670.01473099999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>-658.52164700000003</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>-658.52164700000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>-663.95913199999995</v>
+      </c>
+      <c r="D16">
+        <v>-656.57298500000002</v>
+      </c>
+      <c r="E16">
+        <v>-660.663275</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>-660.39846399999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>-660.87468899999999</v>
+      </c>
+      <c r="D17">
+        <v>-665.26923099999999</v>
+      </c>
+      <c r="E17">
+        <v>-658.57137299999999</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>-661.57176433333336</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/results/RateConstraints.xlsx
+++ b/results/RateConstraints.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="6140" yWindow="4360" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="16">
   <si>
     <t>ATxMB</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>TBasal</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>Log Bayes Factor</t>
   </si>
 </sst>
 </file>
@@ -73,6 +79,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -122,7 +129,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -139,23 +146,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normaal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -484,15 +502,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="7" max="7" width="13.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -511,8 +532,11 @@
       <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -532,8 +556,12 @@
         <f>AVERAGE(C2:E2)</f>
         <v>-676.17962966666664</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="1">
+        <f>2*(F$6-F2)</f>
+        <v>30.970172000000048</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -550,11 +578,15 @@
         <v>-660.66224699999998</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F17" si="0">AVERAGE(C3:E3)</f>
+        <f t="shared" ref="F3:F21" si="0">AVERAGE(C3:E3)</f>
         <v>-663.57730366666669</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <f t="shared" ref="G3:G6" si="1">2*(F$6-F3)</f>
+        <v>5.7655200000001514</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -574,8 +606,12 @@
         <f t="shared" si="0"/>
         <v>-656.33838566666668</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>-8.7123159999998734</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -595,251 +631,393 @@
         <f t="shared" si="0"/>
         <v>-660.63748566666675</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3" t="s">
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>-0.11411599999973987</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>-657.82896700000003</v>
+      </c>
+      <c r="D6">
+        <v>-663.99069799999995</v>
+      </c>
+      <c r="E6">
+        <v>-660.26396599999998</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>-660.69454366666662</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C7" s="3">
         <v>-659.53185099999996</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D7" s="3">
         <v>-660.90757399999995</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E7" s="3">
         <v>-661.37154499999997</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F7" s="4">
         <f t="shared" si="0"/>
         <v>-660.60365666666667</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>-658.20043299999998</v>
-      </c>
-      <c r="D7">
-        <v>-655.50565500000005</v>
-      </c>
-      <c r="E7">
-        <v>-659.65252699999996</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>-657.786205</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="1">
+        <f>2*(F$11-F7)</f>
+        <v>8.3526059999999234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>-652.78465300000005</v>
+        <v>-658.20043299999998</v>
       </c>
       <c r="D8">
-        <v>-655.98754599999995</v>
+        <v>-655.50565500000005</v>
       </c>
       <c r="E8">
-        <v>-652.97013400000003</v>
-      </c>
-      <c r="F8" s="2">
-        <f t="shared" si="0"/>
-        <v>-653.91411100000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-659.65252699999996</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>-657.786205</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8:G10" si="2">2*(F$11-F8)</f>
+        <v>2.7177026666665824</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>1</v>
       </c>
       <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>-652.78465300000005</v>
+      </c>
+      <c r="D9">
+        <v>-655.98754599999995</v>
+      </c>
+      <c r="E9">
+        <v>-652.97013400000003</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>-653.91411100000005</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>-5.0264853333333122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>-660.68300699999998</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>-657.61125100000004</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>-655.600053</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <f t="shared" si="0"/>
         <v>-657.96477033333338</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3" t="s">
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>3.0748333333333449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>-656.26061100000004</v>
+      </c>
+      <c r="D11">
+        <v>-656.82094300000006</v>
+      </c>
+      <c r="E11">
+        <v>-656.20050700000002</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>-656.4273536666667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C12" s="3">
         <v>-638.63682800000004</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D12" s="3">
         <v>-638.36295399999995</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E12" s="3">
         <v>-639.758555</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F12" s="4">
         <f t="shared" si="0"/>
         <v>-638.91944566666655</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>-630.67890199999999</v>
-      </c>
-      <c r="D11">
-        <v>-632.05072800000005</v>
-      </c>
-      <c r="E11">
-        <v>-631.14810199999999</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>-631.29257733333327</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>-629.17605800000001</v>
-      </c>
-      <c r="D12">
-        <v>-631.08573999999999</v>
-      </c>
-      <c r="E12">
-        <v>-630.67012599999998</v>
-      </c>
-      <c r="F12" s="2">
-        <f t="shared" si="0"/>
-        <v>-630.31064133333336</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="1">
+        <f>2*(F$16-F12)</f>
+        <v>13.254661333333161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>6</v>
       </c>
       <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>-630.67890199999999</v>
+      </c>
+      <c r="D13">
+        <v>-632.05072800000005</v>
+      </c>
+      <c r="E13">
+        <v>-631.14810199999999</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>-631.29257733333327</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ref="G13:G16" si="3">2*(F$16-F13)</f>
+        <v>-1.9990753333333942</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>-629.17605800000001</v>
+      </c>
+      <c r="D14">
+        <v>-631.08573999999999</v>
+      </c>
+      <c r="E14">
+        <v>-630.67012599999998</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>-630.31064133333336</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>-3.9629473333332044</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
         <v>5</v>
       </c>
-      <c r="C13">
+      <c r="C15">
         <v>-633.47899099999995</v>
       </c>
-      <c r="D13">
+      <c r="D15">
         <v>-633.84900400000004</v>
       </c>
-      <c r="E13">
+      <c r="E15">
         <v>-634.83378600000003</v>
       </c>
-      <c r="F13">
+      <c r="F15">
         <f t="shared" si="0"/>
         <v>-634.05392700000004</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="3" t="s">
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>3.5236240000001544</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>-632.51566800000001</v>
+      </c>
+      <c r="D16">
+        <v>-631.54291599999999</v>
+      </c>
+      <c r="E16">
+        <v>-632.81776100000002</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>-632.29211499999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C17" s="3">
         <v>-677.35709599999996</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D17" s="3">
         <v>-665.45626500000003</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E17" s="3">
         <v>-667.23083199999996</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F17" s="4">
         <f t="shared" si="0"/>
         <v>-670.01473099999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
+      <c r="G17" s="1">
+        <f>2*(F$21-F17)</f>
+        <v>13.260648666666611</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B18" t="s">
         <v>3</v>
       </c>
-      <c r="C15">
+      <c r="C18">
         <v>-658.52164700000003</v>
       </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>-658.52164700000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
+      <c r="D18" s="5">
+        <v>-676.24561000000006</v>
+      </c>
+      <c r="E18" s="5">
+        <v>-667.69347200000004</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>-667.48690966666663</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ref="G18:G21" si="4">2*(F$21-F18)</f>
+        <v>8.2050059999999121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B19" t="s">
         <v>4</v>
       </c>
-      <c r="C16">
+      <c r="C19">
         <v>-663.95913199999995</v>
       </c>
-      <c r="D16">
+      <c r="D19">
         <v>-656.57298500000002</v>
       </c>
-      <c r="E16">
+      <c r="E19">
         <v>-660.663275</v>
       </c>
-      <c r="F16">
+      <c r="F19" s="2">
         <f t="shared" si="0"/>
         <v>-660.39846399999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
+      <c r="G19">
+        <f t="shared" si="4"/>
+        <v>-5.9718853333333755</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
         <v>13</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B20" t="s">
         <v>5</v>
       </c>
-      <c r="C17">
+      <c r="C20">
         <v>-660.87468899999999</v>
       </c>
-      <c r="D17">
+      <c r="D20">
         <v>-665.26923099999999</v>
       </c>
-      <c r="E17">
+      <c r="E20">
         <v>-658.57137299999999</v>
       </c>
-      <c r="F17">
+      <c r="F20">
         <f t="shared" si="0"/>
         <v>-661.57176433333336</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>-3.6252846666666301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21">
+        <v>-665.07436600000005</v>
+      </c>
+      <c r="D21">
+        <v>-670.92357200000004</v>
+      </c>
+      <c r="E21">
+        <v>-654.15528200000006</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>-663.38440666666668</v>
       </c>
     </row>
   </sheetData>
